--- a/backend/src/test/resources/disease_classification.xlsx
+++ b/backend/src/test/resources/disease_classification.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LJR\his\backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D0597F-AE82-4E48-88A1-9D7DB555C24C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49BAB5-E1C1-4809-B193-8041246FAC53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,38 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>China</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1-西医
-2-中医</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="494">
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="489">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1503,22 +1472,6 @@
   </si>
   <si>
     <t>自杀</t>
-  </si>
-  <si>
-    <t>分类编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示顺序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白斑病</t>
@@ -1556,7 +1509,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1582,14 +1535,6 @@
     <font>
       <sz val="10"/>
       <color indexed="64"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1904,11 +1849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E484"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1936,34 +1881,34 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>491</v>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1971,16 +1916,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>493</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="2">
         <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1988,14 +1931,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>487</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -2003,14 +1946,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -2018,14 +1961,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -2033,14 +1976,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -2048,14 +1991,14 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -2063,14 +2006,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -2078,14 +2021,14 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -2093,14 +2036,14 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -2108,14 +2051,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -2123,14 +2066,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>13</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -2138,13 +2080,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -2152,13 +2094,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2166,13 +2108,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -2180,13 +2122,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -2194,13 +2136,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -2208,13 +2150,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -2222,13 +2164,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -2236,13 +2178,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -2250,13 +2192,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -2264,13 +2206,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -2278,13 +2220,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -2292,13 +2234,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2306,13 +2248,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -2320,13 +2262,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -2334,13 +2276,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -2348,13 +2290,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -2362,13 +2304,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2376,13 +2318,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -2390,13 +2332,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -2404,13 +2346,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -2418,13 +2360,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -2432,13 +2374,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -2446,13 +2388,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -2460,13 +2402,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -2474,13 +2416,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -2488,13 +2430,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -2502,13 +2444,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -2516,13 +2458,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -2530,13 +2472,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -2544,13 +2486,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D44" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -2558,13 +2500,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -2572,13 +2514,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D46" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -2586,13 +2528,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -2600,13 +2542,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -2614,13 +2556,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -2628,13 +2570,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -2642,13 +2584,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
@@ -2656,13 +2598,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -2670,13 +2612,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D53" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -2684,13 +2626,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
@@ -2698,13 +2640,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D55" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
@@ -2712,13 +2654,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -2726,13 +2668,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -2740,13 +2682,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D58" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
@@ -2754,13 +2696,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -2768,13 +2710,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D60" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -2782,13 +2724,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D61" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -2796,13 +2738,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -2810,13 +2752,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -2824,13 +2766,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D64" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
@@ -2838,13 +2780,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D65" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -2852,13 +2794,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D66" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -2866,13 +2808,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D67" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -2880,13 +2822,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D68" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -2894,13 +2836,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D69" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -2908,13 +2850,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D70" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -2922,13 +2864,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D71" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -2936,13 +2878,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D72" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -2950,13 +2892,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D73" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
@@ -2964,13 +2906,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D74" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -2978,13 +2920,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D75" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -2992,13 +2934,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D76" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
@@ -3006,13 +2948,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D77" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -3020,13 +2962,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D78" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -3034,13 +2976,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D79" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
@@ -3048,13 +2990,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D80" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E80" s="2">
         <v>1</v>
@@ -3062,13 +3004,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D81" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
@@ -3076,13 +3018,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D82" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2">
         <v>1</v>
@@ -3090,13 +3032,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D83" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
@@ -3104,13 +3046,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D84" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E84" s="2">
         <v>1</v>
@@ -3118,13 +3060,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D85" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
@@ -3132,13 +3074,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D86" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
@@ -3146,13 +3088,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D87" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E87" s="2">
         <v>1</v>
@@ -3160,13 +3102,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D88" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
@@ -3174,13 +3116,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D89" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E89" s="2">
         <v>1</v>
@@ -3188,13 +3130,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D90" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2">
         <v>1</v>
@@ -3202,13 +3144,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D91" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E91" s="2">
         <v>1</v>
@@ -3216,13 +3158,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D92" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
@@ -3230,13 +3172,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D93" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E93" s="2">
         <v>1</v>
@@ -3244,13 +3186,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D94" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E94" s="2">
         <v>1</v>
@@ -3258,13 +3200,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D95" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2">
         <v>1</v>
@@ -3272,13 +3214,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D96" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E96" s="2">
         <v>1</v>
@@ -3286,13 +3228,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D97" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E97" s="2">
         <v>1</v>
@@ -3300,13 +3242,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D98" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2">
         <v>1</v>
@@ -3314,13 +3256,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D99" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E99" s="2">
         <v>1</v>
@@ -3328,13 +3270,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D100" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2">
         <v>1</v>
@@ -3342,13 +3284,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D101" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2">
         <v>1</v>
@@ -3356,13 +3298,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D102" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2">
         <v>1</v>
@@ -3370,13 +3312,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D103" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2">
         <v>1</v>
@@ -3384,13 +3326,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D104" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2">
         <v>1</v>
@@ -3398,13 +3340,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D105" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2">
         <v>1</v>
@@ -3412,13 +3354,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D106" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2">
         <v>1</v>
@@ -3426,13 +3368,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D107" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
@@ -3440,13 +3382,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D108" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2">
         <v>1</v>
@@ -3454,13 +3396,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D109" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2">
         <v>1</v>
@@ -3468,13 +3410,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D110" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2">
         <v>1</v>
@@ -3482,13 +3424,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D111" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2">
         <v>1</v>
@@ -3496,13 +3438,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D112" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2">
         <v>1</v>
@@ -3510,13 +3452,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D113" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2">
         <v>1</v>
@@ -3524,13 +3466,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D114" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2">
         <v>1</v>
@@ -3538,13 +3480,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>113</v>
       </c>
       <c r="D115" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2">
         <v>1</v>
@@ -3552,13 +3494,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D116" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2">
         <v>1</v>
@@ -3566,13 +3508,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D117" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2">
         <v>1</v>
@@ -3580,13 +3522,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D118" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2">
         <v>1</v>
@@ -3594,13 +3536,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D119" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2">
         <v>1</v>
@@ -3608,13 +3550,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D120" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2">
         <v>1</v>
@@ -3622,13 +3564,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D121" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2">
         <v>1</v>
@@ -3636,13 +3578,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D122" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E122" s="2">
         <v>1</v>
@@ -3650,13 +3592,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D123" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E123" s="2">
         <v>1</v>
@@ -3664,13 +3606,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D124" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2">
         <v>1</v>
@@ -3678,13 +3620,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D125" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2">
         <v>1</v>
@@ -3692,13 +3634,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D126" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2">
         <v>1</v>
@@ -3706,13 +3648,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D127" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2">
         <v>1</v>
@@ -3720,13 +3662,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D128" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2">
         <v>1</v>
@@ -3734,13 +3676,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D129" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
@@ -3748,13 +3690,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D130" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E130" s="2">
         <v>1</v>
@@ -3762,13 +3704,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D131" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E131" s="2">
         <v>1</v>
@@ -3776,13 +3718,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D132" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E132" s="2">
         <v>1</v>
@@ -3790,13 +3732,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D133" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2">
         <v>1</v>
@@ -3804,13 +3746,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D134" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2">
         <v>1</v>
@@ -3818,13 +3760,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D135" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2">
         <v>1</v>
@@ -3832,13 +3774,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D136" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2">
         <v>1</v>
@@ -3846,13 +3788,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D137" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2">
         <v>1</v>
@@ -3860,13 +3802,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D138" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E138" s="2">
         <v>1</v>
@@ -3874,13 +3816,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D139" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2">
         <v>1</v>
@@ -3888,13 +3830,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D140" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2">
         <v>1</v>
@@ -3902,13 +3844,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D141" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E141" s="2">
         <v>1</v>
@@ -3916,13 +3858,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D142" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2">
         <v>1</v>
@@ -3930,13 +3872,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D143" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2">
         <v>1</v>
@@ -3944,13 +3886,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D144" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E144" s="2">
         <v>1</v>
@@ -3958,13 +3900,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D145" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2">
         <v>1</v>
@@ -3972,13 +3914,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D146" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E146" s="2">
         <v>1</v>
@@ -3986,13 +3928,13 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D147" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E147" s="2">
         <v>1</v>
@@ -4000,13 +3942,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D148" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E148" s="2">
         <v>1</v>
@@ -4014,13 +3956,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D149" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2">
         <v>1</v>
@@ -4028,13 +3970,13 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D150" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2">
         <v>1</v>
@@ -4042,13 +3984,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D151" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2">
         <v>1</v>
@@ -4056,13 +3998,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D152" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2">
         <v>1</v>
@@ -4070,13 +4012,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D153" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2">
         <v>1</v>
@@ -4084,13 +4026,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D154" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E154" s="2">
         <v>1</v>
@@ -4098,13 +4040,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D155" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E155" s="2">
         <v>1</v>
@@ -4112,13 +4054,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D156" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E156" s="2">
         <v>1</v>
@@ -4126,13 +4068,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D157" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E157" s="2">
         <v>1</v>
@@ -4140,13 +4082,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D158" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E158" s="2">
         <v>1</v>
@@ -4154,13 +4096,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D159" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E159" s="2">
         <v>1</v>
@@ -4168,13 +4110,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D160" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E160" s="2">
         <v>1</v>
@@ -4182,13 +4124,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D161" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E161" s="2">
         <v>1</v>
@@ -4196,13 +4138,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D162" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E162" s="2">
         <v>1</v>
@@ -4210,13 +4152,13 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D163" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E163" s="2">
         <v>1</v>
@@ -4224,13 +4166,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D164" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E164" s="2">
         <v>1</v>
@@ -4238,13 +4180,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D165" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E165" s="2">
         <v>1</v>
@@ -4252,13 +4194,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D166" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E166" s="2">
         <v>1</v>
@@ -4266,13 +4208,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>165</v>
       </c>
       <c r="D167" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E167" s="2">
         <v>1</v>
@@ -4280,13 +4222,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D168" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E168" s="2">
         <v>1</v>
@@ -4294,13 +4236,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D169" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E169" s="2">
         <v>1</v>
@@ -4308,13 +4250,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D170" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E170" s="2">
         <v>1</v>
@@ -4322,13 +4264,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D171" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E171" s="2">
         <v>1</v>
@@ -4336,13 +4278,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D172" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E172" s="2">
         <v>1</v>
@@ -4350,13 +4292,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>171</v>
       </c>
       <c r="D173" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E173" s="2">
         <v>1</v>
@@ -4364,13 +4306,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D174" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E174" s="2">
         <v>1</v>
@@ -4378,13 +4320,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D175" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E175" s="2">
         <v>1</v>
@@ -4392,13 +4334,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D176" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E176" s="2">
         <v>1</v>
@@ -4406,13 +4348,13 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D177" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E177" s="2">
         <v>1</v>
@@ -4420,13 +4362,13 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D178" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E178" s="2">
         <v>1</v>
@@ -4434,13 +4376,13 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D179" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E179" s="2">
         <v>1</v>
@@ -4448,13 +4390,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D180" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E180" s="2">
         <v>1</v>
@@ -4462,13 +4404,13 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D181" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E181" s="2">
         <v>1</v>
@@ -4476,13 +4418,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D182" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E182" s="2">
         <v>1</v>
@@ -4490,13 +4432,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D183" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E183" s="2">
         <v>1</v>
@@ -4504,13 +4446,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>182</v>
       </c>
       <c r="D184" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E184" s="2">
         <v>1</v>
@@ -4518,13 +4460,13 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D185" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E185" s="2">
         <v>1</v>
@@ -4532,13 +4474,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D186" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E186" s="2">
         <v>1</v>
@@ -4546,13 +4488,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>185</v>
       </c>
       <c r="D187" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E187" s="2">
         <v>1</v>
@@ -4560,13 +4502,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D188" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E188" s="2">
         <v>1</v>
@@ -4574,13 +4516,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D189" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E189" s="2">
         <v>1</v>
@@ -4588,13 +4530,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D190" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E190" s="2">
         <v>1</v>
@@ -4602,13 +4544,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D191" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E191" s="2">
         <v>1</v>
@@ -4616,13 +4558,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D192" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E192" s="2">
         <v>1</v>
@@ -4630,13 +4572,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D193" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E193" s="2">
         <v>1</v>
@@ -4644,13 +4586,13 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D194" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E194" s="2">
         <v>1</v>
@@ -4658,13 +4600,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D195" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E195" s="2">
         <v>1</v>
@@ -4672,13 +4614,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>194</v>
       </c>
       <c r="D196" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E196" s="2">
         <v>1</v>
@@ -4686,13 +4628,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D197" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E197" s="2">
         <v>1</v>
@@ -4700,13 +4642,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D198" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E198" s="2">
         <v>1</v>
@@ -4714,13 +4656,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>197</v>
       </c>
       <c r="D199" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E199" s="2">
         <v>1</v>
@@ -4728,13 +4670,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>198</v>
       </c>
       <c r="D200" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E200" s="2">
         <v>1</v>
@@ -4742,13 +4684,13 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>199</v>
       </c>
       <c r="D201" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E201" s="2">
         <v>1</v>
@@ -4756,13 +4698,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D202" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E202" s="2">
         <v>1</v>
@@ -4770,13 +4712,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D203" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E203" s="2">
         <v>1</v>
@@ -4784,13 +4726,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>202</v>
       </c>
       <c r="D204" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E204" s="2">
         <v>1</v>
@@ -4798,13 +4740,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D205" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E205" s="2">
         <v>1</v>
@@ -4812,13 +4754,13 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D206" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E206" s="2">
         <v>1</v>
@@ -4826,13 +4768,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D207" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E207" s="2">
         <v>1</v>
@@ -4840,13 +4782,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D208" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E208" s="2">
         <v>1</v>
@@ -4854,13 +4796,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D209" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E209" s="2">
         <v>1</v>
@@ -4868,13 +4810,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D210" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E210" s="2">
         <v>1</v>
@@ -4882,13 +4824,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D211" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E211" s="2">
         <v>1</v>
@@ -4896,13 +4838,13 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D212" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E212" s="2">
         <v>1</v>
@@ -4910,13 +4852,13 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>211</v>
       </c>
       <c r="D213" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E213" s="2">
         <v>1</v>
@@ -4924,13 +4866,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D214" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E214" s="2">
         <v>1</v>
@@ -4938,13 +4880,13 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D215" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E215" s="2">
         <v>1</v>
@@ -4952,13 +4894,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D216" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E216" s="2">
         <v>1</v>
@@ -4966,13 +4908,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D217" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E217" s="2">
         <v>1</v>
@@ -4980,13 +4922,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>216</v>
       </c>
       <c r="D218" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E218" s="2">
         <v>1</v>
@@ -4994,13 +4936,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D219" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E219" s="2">
         <v>1</v>
@@ -5008,13 +4950,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D220" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E220" s="2">
         <v>1</v>
@@ -5022,13 +4964,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D221" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E221" s="2">
         <v>1</v>
@@ -5036,13 +4978,13 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D222" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E222" s="2">
         <v>1</v>
@@ -5050,13 +4992,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D223" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E223" s="2">
         <v>1</v>
@@ -5064,13 +5006,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>222</v>
       </c>
       <c r="D224" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E224" s="2">
         <v>1</v>
@@ -5078,13 +5020,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D225" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E225" s="2">
         <v>1</v>
@@ -5092,13 +5034,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>224</v>
       </c>
       <c r="D226" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E226" s="2">
         <v>1</v>
@@ -5106,13 +5048,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D227" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E227" s="2">
         <v>1</v>
@@ -5120,13 +5062,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D228" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E228" s="2">
         <v>1</v>
@@ -5134,13 +5076,13 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>227</v>
       </c>
       <c r="D229" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E229" s="2">
         <v>1</v>
@@ -5148,13 +5090,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D230" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E230" s="2">
         <v>1</v>
@@ -5162,13 +5104,13 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D231" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E231" s="2">
         <v>1</v>
@@ -5176,13 +5118,13 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D232" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E232" s="2">
         <v>1</v>
@@ -5190,13 +5132,13 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>231</v>
       </c>
       <c r="D233" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E233" s="2">
         <v>1</v>
@@ -5204,13 +5146,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D234" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E234" s="2">
         <v>1</v>
@@ -5218,13 +5160,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>233</v>
       </c>
       <c r="D235" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E235" s="2">
         <v>1</v>
@@ -5232,13 +5174,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D236" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E236" s="2">
         <v>1</v>
@@ -5246,13 +5188,13 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D237" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E237" s="2">
         <v>1</v>
@@ -5260,13 +5202,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D238" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E238" s="2">
         <v>1</v>
@@ -5274,13 +5216,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>237</v>
       </c>
       <c r="D239" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E239" s="2">
         <v>1</v>
@@ -5288,13 +5230,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D240" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E240" s="2">
         <v>1</v>
@@ -5302,13 +5244,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D241" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E241" s="2">
         <v>1</v>
@@ -5316,13 +5258,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D242" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E242" s="2">
         <v>1</v>
@@ -5330,13 +5272,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D243" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E243" s="2">
         <v>1</v>
@@ -5344,13 +5286,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D244" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E244" s="2">
         <v>1</v>
@@ -5358,13 +5300,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D245" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E245" s="2">
         <v>1</v>
@@ -5372,13 +5314,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D246" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E246" s="2">
         <v>1</v>
@@ -5386,13 +5328,13 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>245</v>
       </c>
       <c r="D247" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E247" s="2">
         <v>1</v>
@@ -5400,13 +5342,13 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D248" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E248" s="2">
         <v>1</v>
@@ -5414,13 +5356,13 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D249" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E249" s="2">
         <v>1</v>
@@ -5428,13 +5370,13 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>248</v>
       </c>
       <c r="D250" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E250" s="2">
         <v>1</v>
@@ -5442,13 +5384,13 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>249</v>
       </c>
       <c r="D251" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E251" s="2">
         <v>1</v>
@@ -5456,13 +5398,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D252" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E252" s="2">
         <v>1</v>
@@ -5470,13 +5412,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D253" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E253" s="2">
         <v>1</v>
@@ -5484,13 +5426,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D254" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E254" s="2">
         <v>1</v>
@@ -5498,13 +5440,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>253</v>
       </c>
       <c r="D255" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E255" s="2">
         <v>1</v>
@@ -5512,13 +5454,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>254</v>
       </c>
       <c r="D256" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E256" s="2">
         <v>1</v>
@@ -5526,13 +5468,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D257" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E257" s="2">
         <v>1</v>
@@ -5540,13 +5482,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>256</v>
       </c>
       <c r="D258" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E258" s="2">
         <v>1</v>
@@ -5554,13 +5496,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D259" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E259" s="2">
         <v>1</v>
@@ -5568,13 +5510,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D260" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E260" s="2">
         <v>1</v>
@@ -5582,13 +5524,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>259</v>
       </c>
       <c r="D261" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E261" s="2">
         <v>1</v>
@@ -5596,13 +5538,13 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D262" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E262" s="2">
         <v>1</v>
@@ -5610,13 +5552,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>261</v>
       </c>
       <c r="D263" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E263" s="2">
         <v>1</v>
@@ -5624,13 +5566,13 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>262</v>
       </c>
       <c r="D264" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E264" s="2">
         <v>1</v>
@@ -5638,13 +5580,13 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>263</v>
       </c>
       <c r="D265" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E265" s="2">
         <v>1</v>
@@ -5652,13 +5594,13 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>264</v>
       </c>
       <c r="D266" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E266" s="2">
         <v>1</v>
@@ -5666,13 +5608,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>265</v>
       </c>
       <c r="D267" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E267" s="2">
         <v>1</v>
@@ -5680,13 +5622,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D268" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E268" s="2">
         <v>1</v>
@@ -5694,13 +5636,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>267</v>
       </c>
       <c r="D269" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E269" s="2">
         <v>1</v>
@@ -5708,13 +5650,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>268</v>
       </c>
       <c r="D270" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E270" s="2">
         <v>1</v>
@@ -5722,13 +5664,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>269</v>
       </c>
       <c r="D271" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E271" s="2">
         <v>1</v>
@@ -5736,13 +5678,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>270</v>
       </c>
       <c r="D272" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E272" s="2">
         <v>1</v>
@@ -5750,13 +5692,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>271</v>
       </c>
       <c r="D273" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E273" s="2">
         <v>1</v>
@@ -5764,13 +5706,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D274" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E274" s="2">
         <v>1</v>
@@ -5778,13 +5720,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>273</v>
       </c>
       <c r="D275" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E275" s="2">
         <v>1</v>
@@ -5792,13 +5734,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D276" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E276" s="2">
         <v>1</v>
@@ -5806,13 +5748,13 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D277" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E277" s="2">
         <v>1</v>
@@ -5820,13 +5762,13 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>276</v>
       </c>
       <c r="D278" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E278" s="2">
         <v>1</v>
@@ -5834,13 +5776,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>277</v>
       </c>
       <c r="D279" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E279" s="2">
         <v>1</v>
@@ -5848,13 +5790,13 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D280" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E280" s="2">
         <v>1</v>
@@ -5862,13 +5804,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D281" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E281" s="2">
         <v>1</v>
@@ -5876,13 +5818,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D282" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E282" s="2">
         <v>1</v>
@@ -5890,13 +5832,13 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D283" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E283" s="2">
         <v>1</v>
@@ -5904,13 +5846,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D284" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E284" s="2">
         <v>1</v>
@@ -5918,13 +5860,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D285" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E285" s="2">
         <v>1</v>
@@ -5932,13 +5874,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D286" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E286" s="2">
         <v>1</v>
@@ -5946,13 +5888,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>285</v>
       </c>
       <c r="D287" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E287" s="2">
         <v>1</v>
@@ -5960,13 +5902,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D288" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E288" s="2">
         <v>1</v>
@@ -5974,13 +5916,13 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>287</v>
       </c>
       <c r="D289" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E289" s="2">
         <v>1</v>
@@ -5988,13 +5930,13 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D290" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E290" s="2">
         <v>1</v>
@@ -6002,13 +5944,13 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D291" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E291" s="2">
         <v>1</v>
@@ -6016,13 +5958,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D292" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E292" s="2">
         <v>1</v>
@@ -6030,13 +5972,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D293" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E293" s="2">
         <v>1</v>
@@ -6044,13 +5986,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>292</v>
       </c>
       <c r="D294" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E294" s="2">
         <v>1</v>
@@ -6058,13 +6000,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D295" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E295" s="2">
         <v>1</v>
@@ -6072,13 +6014,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>294</v>
       </c>
       <c r="D296" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E296" s="2">
         <v>1</v>
@@ -6086,13 +6028,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D297" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E297" s="2">
         <v>1</v>
@@ -6100,13 +6042,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D298" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E298" s="2">
         <v>1</v>
@@ -6114,13 +6056,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D299" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E299" s="2">
         <v>1</v>
@@ -6128,13 +6070,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D300" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E300" s="2">
         <v>1</v>
@@ -6142,13 +6084,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D301" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E301" s="2">
         <v>1</v>
@@ -6156,13 +6098,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>300</v>
       </c>
       <c r="D302" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E302" s="2">
         <v>1</v>
@@ -6170,13 +6112,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D303" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E303" s="2">
         <v>1</v>
@@ -6184,13 +6126,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D304" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E304" s="2">
         <v>1</v>
@@ -6198,13 +6140,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>303</v>
       </c>
       <c r="D305" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E305" s="2">
         <v>1</v>
@@ -6212,13 +6154,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>304</v>
       </c>
       <c r="D306" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E306" s="2">
         <v>1</v>
@@ -6226,13 +6168,13 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D307" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E307" s="2">
         <v>1</v>
@@ -6240,13 +6182,13 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D308" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E308" s="2">
         <v>1</v>
@@ -6254,13 +6196,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D309" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E309" s="2">
         <v>1</v>
@@ -6268,13 +6210,13 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D310" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E310" s="2">
         <v>1</v>
@@ -6282,13 +6224,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D311" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E311" s="2">
         <v>1</v>
@@ -6296,13 +6238,13 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D312" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E312" s="2">
         <v>1</v>
@@ -6310,13 +6252,13 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D313" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E313" s="2">
         <v>1</v>
@@ -6324,13 +6266,13 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D314" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E314" s="2">
         <v>1</v>
@@ -6338,13 +6280,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D315" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E315" s="2">
         <v>1</v>
@@ -6352,13 +6294,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D316" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E316" s="2">
         <v>1</v>
@@ -6366,13 +6308,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D317" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E317" s="2">
         <v>1</v>
@@ -6380,13 +6322,13 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D318" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E318" s="2">
         <v>1</v>
@@ -6394,13 +6336,13 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D319" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E319" s="2">
         <v>1</v>
@@ -6408,13 +6350,13 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>318</v>
       </c>
       <c r="D320" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E320" s="2">
         <v>1</v>
@@ -6422,13 +6364,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D321" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E321" s="2">
         <v>1</v>
@@ -6436,13 +6378,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D322" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E322" s="2">
         <v>1</v>
@@ -6450,13 +6392,13 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D323" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E323" s="2">
         <v>1</v>
@@ -6464,13 +6406,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D324" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E324" s="2">
         <v>1</v>
@@ -6478,13 +6420,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>323</v>
       </c>
       <c r="D325" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E325" s="2">
         <v>1</v>
@@ -6492,13 +6434,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>324</v>
       </c>
       <c r="D326" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E326" s="2">
         <v>1</v>
@@ -6506,13 +6448,13 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>325</v>
       </c>
       <c r="D327" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E327" s="2">
         <v>1</v>
@@ -6520,13 +6462,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>326</v>
       </c>
       <c r="D328" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E328" s="2">
         <v>1</v>
@@ -6534,13 +6476,13 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>327</v>
       </c>
       <c r="D329" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E329" s="2">
         <v>1</v>
@@ -6548,13 +6490,13 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D330" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E330" s="2">
         <v>1</v>
@@ -6562,13 +6504,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>329</v>
       </c>
       <c r="D331" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E331" s="2">
         <v>1</v>
@@ -6576,13 +6518,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>330</v>
       </c>
       <c r="D332" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E332" s="2">
         <v>1</v>
@@ -6590,13 +6532,13 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>331</v>
       </c>
       <c r="D333" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E333" s="2">
         <v>1</v>
@@ -6604,13 +6546,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D334" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E334" s="2">
         <v>1</v>
@@ -6618,13 +6560,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>333</v>
       </c>
       <c r="D335" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E335" s="2">
         <v>1</v>
@@ -6632,13 +6574,13 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>334</v>
       </c>
       <c r="D336" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E336" s="2">
         <v>1</v>
@@ -6646,13 +6588,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D337" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E337" s="2">
         <v>1</v>
@@ -6660,13 +6602,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D338" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E338" s="2">
         <v>1</v>
@@ -6674,13 +6616,13 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D339" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E339" s="2">
         <v>1</v>
@@ -6688,13 +6630,13 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>338</v>
       </c>
       <c r="D340" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E340" s="2">
         <v>1</v>
@@ -6702,13 +6644,13 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>339</v>
       </c>
       <c r="D341" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E341" s="2">
         <v>1</v>
@@ -6716,13 +6658,13 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>340</v>
       </c>
       <c r="D342" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E342" s="2">
         <v>1</v>
@@ -6730,13 +6672,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>341</v>
       </c>
       <c r="D343" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E343" s="2">
         <v>1</v>
@@ -6744,13 +6686,13 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D344" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E344" s="2">
         <v>1</v>
@@ -6758,13 +6700,13 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>343</v>
       </c>
       <c r="D345" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E345" s="2">
         <v>1</v>
@@ -6772,13 +6714,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>344</v>
       </c>
       <c r="D346" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E346" s="2">
         <v>1</v>
@@ -6786,13 +6728,13 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>345</v>
       </c>
       <c r="D347" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E347" s="2">
         <v>1</v>
@@ -6800,13 +6742,13 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D348" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E348" s="2">
         <v>1</v>
@@ -6814,13 +6756,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D349" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E349" s="2">
         <v>1</v>
@@ -6828,13 +6770,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>348</v>
       </c>
       <c r="D350" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E350" s="2">
         <v>1</v>
@@ -6842,13 +6784,13 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>349</v>
       </c>
       <c r="D351" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E351" s="2">
         <v>1</v>
@@ -6856,13 +6798,13 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>350</v>
       </c>
       <c r="D352" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E352" s="2">
         <v>1</v>
@@ -6870,13 +6812,13 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>351</v>
       </c>
       <c r="D353" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E353" s="2">
         <v>1</v>
@@ -6884,13 +6826,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>352</v>
       </c>
       <c r="D354" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E354" s="2">
         <v>1</v>
@@ -6898,13 +6840,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>353</v>
       </c>
       <c r="D355" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E355" s="2">
         <v>1</v>
@@ -6912,13 +6854,13 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>354</v>
       </c>
       <c r="D356" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E356" s="2">
         <v>1</v>
@@ -6926,13 +6868,13 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>355</v>
       </c>
       <c r="D357" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E357" s="2">
         <v>1</v>
@@ -6940,13 +6882,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>356</v>
       </c>
       <c r="D358" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E358" s="2">
         <v>1</v>
@@ -6954,13 +6896,13 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>357</v>
       </c>
       <c r="D359" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E359" s="2">
         <v>1</v>
@@ -6968,13 +6910,13 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>358</v>
       </c>
       <c r="D360" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E360" s="2">
         <v>1</v>
@@ -6982,13 +6924,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>359</v>
       </c>
       <c r="D361" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E361" s="2">
         <v>1</v>
@@ -6996,13 +6938,13 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>360</v>
       </c>
       <c r="D362" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E362" s="2">
         <v>1</v>
@@ -7010,13 +6952,13 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>361</v>
       </c>
       <c r="D363" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E363" s="2">
         <v>1</v>
@@ -7024,13 +6966,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>362</v>
       </c>
       <c r="D364" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E364" s="2">
         <v>1</v>
@@ -7038,13 +6980,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>363</v>
       </c>
       <c r="D365" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E365" s="2">
         <v>1</v>
@@ -7052,13 +6994,13 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>364</v>
       </c>
       <c r="D366" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E366" s="2">
         <v>1</v>
@@ -7066,13 +7008,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>365</v>
       </c>
       <c r="D367" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E367" s="2">
         <v>1</v>
@@ -7080,13 +7022,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>366</v>
       </c>
       <c r="D368" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E368" s="2">
         <v>1</v>
@@ -7094,13 +7036,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>367</v>
       </c>
       <c r="D369" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E369" s="2">
         <v>1</v>
@@ -7108,13 +7050,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D370" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E370" s="2">
         <v>1</v>
@@ -7122,13 +7064,13 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>369</v>
       </c>
       <c r="D371" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E371" s="2">
         <v>1</v>
@@ -7136,13 +7078,13 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>370</v>
       </c>
       <c r="D372" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E372" s="2">
         <v>1</v>
@@ -7150,13 +7092,13 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>371</v>
       </c>
       <c r="D373" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E373" s="2">
         <v>1</v>
@@ -7164,13 +7106,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>372</v>
       </c>
       <c r="D374" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E374" s="2">
         <v>1</v>
@@ -7178,13 +7120,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>373</v>
       </c>
       <c r="D375" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E375" s="2">
         <v>1</v>
@@ -7192,13 +7134,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>374</v>
       </c>
       <c r="D376" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E376" s="2">
         <v>1</v>
@@ -7206,13 +7148,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>375</v>
       </c>
       <c r="D377" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E377" s="2">
         <v>1</v>
@@ -7220,13 +7162,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D378" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E378" s="2">
         <v>1</v>
@@ -7234,13 +7176,13 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>377</v>
       </c>
       <c r="D379" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E379" s="2">
         <v>1</v>
@@ -7248,13 +7190,13 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>378</v>
       </c>
       <c r="D380" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E380" s="2">
         <v>1</v>
@@ -7262,13 +7204,13 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>379</v>
       </c>
       <c r="D381" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E381" s="2">
         <v>1</v>
@@ -7276,13 +7218,13 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>380</v>
       </c>
       <c r="D382" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E382" s="2">
         <v>1</v>
@@ -7290,13 +7232,13 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>381</v>
       </c>
       <c r="D383" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E383" s="2">
         <v>1</v>
@@ -7304,13 +7246,13 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>382</v>
       </c>
       <c r="D384" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E384" s="2">
         <v>1</v>
@@ -7318,13 +7260,13 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>383</v>
       </c>
       <c r="D385" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E385" s="2">
         <v>1</v>
@@ -7332,13 +7274,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>384</v>
       </c>
       <c r="D386" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E386" s="2">
         <v>1</v>
@@ -7346,13 +7288,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>385</v>
       </c>
       <c r="D387" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E387" s="2">
         <v>1</v>
@@ -7360,13 +7302,13 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>386</v>
       </c>
       <c r="D388" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E388" s="2">
         <v>1</v>
@@ -7374,13 +7316,13 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>387</v>
       </c>
       <c r="D389" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E389" s="2">
         <v>1</v>
@@ -7388,13 +7330,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>388</v>
       </c>
       <c r="D390" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E390" s="2">
         <v>1</v>
@@ -7402,13 +7344,13 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>389</v>
       </c>
       <c r="D391" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E391" s="2">
         <v>1</v>
@@ -7416,13 +7358,13 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>390</v>
       </c>
       <c r="D392" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E392" s="2">
         <v>1</v>
@@ -7430,13 +7372,13 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>391</v>
       </c>
       <c r="D393" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E393" s="2">
         <v>1</v>
@@ -7444,13 +7386,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>392</v>
       </c>
       <c r="D394" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E394" s="2">
         <v>1</v>
@@ -7458,13 +7400,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>393</v>
       </c>
       <c r="D395" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E395" s="2">
         <v>1</v>
@@ -7472,13 +7414,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>394</v>
       </c>
       <c r="D396" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E396" s="2">
         <v>1</v>
@@ -7486,13 +7428,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>395</v>
       </c>
       <c r="D397" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E397" s="2">
         <v>1</v>
@@ -7500,13 +7442,13 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>396</v>
       </c>
       <c r="D398" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E398" s="2">
         <v>1</v>
@@ -7514,13 +7456,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>397</v>
       </c>
       <c r="D399" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E399" s="2">
         <v>1</v>
@@ -7528,13 +7470,13 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>398</v>
       </c>
       <c r="D400" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E400" s="2">
         <v>1</v>
@@ -7542,13 +7484,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>399</v>
       </c>
       <c r="D401" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E401" s="2">
         <v>1</v>
@@ -7556,13 +7498,13 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D402" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E402" s="2">
         <v>1</v>
@@ -7570,13 +7512,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>401</v>
       </c>
       <c r="D403" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E403" s="2">
         <v>1</v>
@@ -7584,13 +7526,13 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>402</v>
       </c>
       <c r="D404" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E404" s="2">
         <v>1</v>
@@ -7598,13 +7540,13 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>403</v>
       </c>
       <c r="D405" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E405" s="2">
         <v>1</v>
@@ -7612,13 +7554,13 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>404</v>
       </c>
       <c r="D406" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E406" s="2">
         <v>1</v>
@@ -7626,13 +7568,13 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>405</v>
       </c>
       <c r="D407" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E407" s="2">
         <v>1</v>
@@ -7640,13 +7582,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>406</v>
       </c>
       <c r="D408" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E408" s="2">
         <v>1</v>
@@ -7654,13 +7596,13 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>407</v>
       </c>
       <c r="D409" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E409" s="2">
         <v>1</v>
@@ -7668,13 +7610,13 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>408</v>
       </c>
       <c r="D410" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E410" s="2">
         <v>1</v>
@@ -7682,13 +7624,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>409</v>
       </c>
       <c r="D411" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E411" s="2">
         <v>1</v>
@@ -7696,13 +7638,13 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>410</v>
       </c>
       <c r="D412" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E412" s="2">
         <v>1</v>
@@ -7710,13 +7652,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>411</v>
       </c>
       <c r="D413" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E413" s="2">
         <v>1</v>
@@ -7724,13 +7666,13 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>412</v>
       </c>
       <c r="D414" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E414" s="2">
         <v>1</v>
@@ -7738,13 +7680,13 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>413</v>
       </c>
       <c r="D415" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E415" s="2">
         <v>1</v>
@@ -7752,13 +7694,13 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>414</v>
       </c>
       <c r="D416" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E416" s="2">
         <v>1</v>
@@ -7766,13 +7708,13 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>415</v>
       </c>
       <c r="D417" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E417" s="2">
         <v>1</v>
@@ -7780,13 +7722,13 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>416</v>
       </c>
       <c r="D418" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E418" s="2">
         <v>1</v>
@@ -7794,13 +7736,13 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D419" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E419" s="2">
         <v>1</v>
@@ -7808,13 +7750,13 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>418</v>
       </c>
       <c r="D420" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E420" s="2">
         <v>1</v>
@@ -7822,13 +7764,13 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>419</v>
       </c>
       <c r="D421" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E421" s="2">
         <v>1</v>
@@ -7836,13 +7778,13 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>420</v>
       </c>
       <c r="D422" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E422" s="2">
         <v>1</v>
@@ -7850,13 +7792,13 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>421</v>
       </c>
       <c r="D423" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E423" s="2">
         <v>1</v>
@@ -7864,13 +7806,13 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>422</v>
       </c>
       <c r="D424" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E424" s="2">
         <v>1</v>
@@ -7878,13 +7820,13 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>423</v>
       </c>
       <c r="D425" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E425" s="2">
         <v>1</v>
@@ -7892,13 +7834,13 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>424</v>
       </c>
       <c r="D426" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E426" s="2">
         <v>1</v>
@@ -7906,13 +7848,13 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>425</v>
       </c>
       <c r="D427" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E427" s="2">
         <v>1</v>
@@ -7920,13 +7862,13 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>426</v>
       </c>
       <c r="D428" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E428" s="2">
         <v>1</v>
@@ -7934,13 +7876,13 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>427</v>
       </c>
       <c r="D429" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E429" s="2">
         <v>1</v>
@@ -7948,13 +7890,13 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>428</v>
       </c>
       <c r="D430" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E430" s="2">
         <v>1</v>
@@ -7962,13 +7904,13 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>429</v>
       </c>
       <c r="D431" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E431" s="2">
         <v>1</v>
@@ -7976,13 +7918,13 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>430</v>
       </c>
       <c r="D432" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E432" s="2">
         <v>1</v>
@@ -7990,13 +7932,13 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>431</v>
       </c>
       <c r="D433" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E433" s="2">
         <v>1</v>
@@ -8004,13 +7946,13 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>432</v>
       </c>
       <c r="D434" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E434" s="2">
         <v>1</v>
@@ -8018,13 +7960,13 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>433</v>
       </c>
       <c r="D435" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E435" s="2">
         <v>1</v>
@@ -8032,13 +7974,13 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>434</v>
       </c>
       <c r="D436" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E436" s="2">
         <v>1</v>
@@ -8046,13 +7988,13 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>435</v>
       </c>
       <c r="D437" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E437" s="2">
         <v>1</v>
@@ -8060,13 +8002,13 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D438" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E438" s="2">
         <v>1</v>
@@ -8074,13 +8016,13 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D439" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E439" s="2">
         <v>1</v>
@@ -8088,13 +8030,13 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>438</v>
       </c>
       <c r="D440" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E440" s="2">
         <v>1</v>
@@ -8102,13 +8044,13 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D441" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E441" s="2">
         <v>1</v>
@@ -8116,13 +8058,13 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>440</v>
       </c>
       <c r="D442" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E442" s="2">
         <v>1</v>
@@ -8130,13 +8072,13 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>441</v>
       </c>
       <c r="D443" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E443" s="2">
         <v>1</v>
@@ -8144,13 +8086,13 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>442</v>
       </c>
       <c r="D444" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E444" s="2">
         <v>1</v>
@@ -8158,13 +8100,13 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>443</v>
       </c>
       <c r="D445" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E445" s="2">
         <v>1</v>
@@ -8172,13 +8114,13 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>444</v>
       </c>
       <c r="D446" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E446" s="2">
         <v>1</v>
@@ -8186,13 +8128,13 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>445</v>
       </c>
       <c r="D447" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E447" s="2">
         <v>1</v>
@@ -8200,13 +8142,13 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>446</v>
       </c>
       <c r="D448" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E448" s="2">
         <v>1</v>
@@ -8214,13 +8156,13 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>447</v>
       </c>
       <c r="D449" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E449" s="2">
         <v>1</v>
@@ -8228,13 +8170,13 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>448</v>
       </c>
       <c r="D450" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E450" s="2">
         <v>1</v>
@@ -8242,13 +8184,13 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>449</v>
       </c>
       <c r="D451" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E451" s="2">
         <v>1</v>
@@ -8256,13 +8198,13 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>450</v>
       </c>
       <c r="D452" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E452" s="2">
         <v>1</v>
@@ -8270,13 +8212,13 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>451</v>
       </c>
       <c r="D453" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E453" s="2">
         <v>1</v>
@@ -8284,13 +8226,13 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>452</v>
       </c>
       <c r="D454" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E454" s="2">
         <v>1</v>
@@ -8298,13 +8240,13 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>453</v>
       </c>
       <c r="D455" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E455" s="2">
         <v>1</v>
@@ -8312,13 +8254,13 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>454</v>
       </c>
       <c r="D456" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E456" s="2">
         <v>1</v>
@@ -8326,13 +8268,13 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>455</v>
       </c>
       <c r="D457" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E457" s="2">
         <v>1</v>
@@ -8340,13 +8282,13 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>456</v>
       </c>
       <c r="D458" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E458" s="2">
         <v>1</v>
@@ -8354,13 +8296,13 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>457</v>
       </c>
       <c r="D459" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E459" s="2">
         <v>1</v>
@@ -8368,13 +8310,13 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>458</v>
       </c>
       <c r="D460" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E460" s="2">
         <v>1</v>
@@ -8382,13 +8324,13 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>459</v>
       </c>
       <c r="D461" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E461" s="2">
         <v>1</v>
@@ -8396,13 +8338,13 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>460</v>
       </c>
       <c r="D462" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E462" s="2">
         <v>1</v>
@@ -8410,13 +8352,13 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>461</v>
       </c>
       <c r="D463" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E463" s="2">
         <v>1</v>
@@ -8424,13 +8366,13 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>462</v>
       </c>
       <c r="D464" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E464" s="2">
         <v>1</v>
@@ -8438,13 +8380,13 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>463</v>
       </c>
       <c r="D465" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E465" s="2">
         <v>1</v>
@@ -8452,13 +8394,13 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D466" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E466" s="2">
         <v>1</v>
@@ -8466,13 +8408,13 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>465</v>
       </c>
       <c r="D467" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E467" s="2">
         <v>1</v>
@@ -8480,13 +8422,13 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>466</v>
       </c>
       <c r="D468" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E468" s="2">
         <v>1</v>
@@ -8494,13 +8436,13 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>467</v>
       </c>
       <c r="D469" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E469" s="2">
         <v>1</v>
@@ -8508,13 +8450,13 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>468</v>
       </c>
       <c r="D470" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E470" s="2">
         <v>1</v>
@@ -8522,13 +8464,13 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>469</v>
       </c>
       <c r="D471" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E471" s="2">
         <v>1</v>
@@ -8536,13 +8478,13 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>470</v>
       </c>
       <c r="D472" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E472" s="2">
         <v>1</v>
@@ -8550,41 +8492,41 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>471</v>
       </c>
       <c r="D473" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E473" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>472</v>
       </c>
       <c r="D474" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E474" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>473</v>
       </c>
       <c r="D475" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E475" s="2">
         <v>1</v>
@@ -8592,13 +8534,13 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>474</v>
       </c>
       <c r="D476" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E476" s="2">
         <v>1</v>
@@ -8606,13 +8548,13 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>475</v>
       </c>
       <c r="D477" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E477" s="2">
         <v>1</v>
@@ -8620,13 +8562,13 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>476</v>
       </c>
       <c r="D478" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E478" s="2">
         <v>1</v>
@@ -8634,13 +8576,13 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>477</v>
       </c>
       <c r="D479" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E479" s="2">
         <v>1</v>
@@ -8648,13 +8590,13 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>478</v>
       </c>
       <c r="D480" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E480" s="2">
         <v>1</v>
@@ -8662,13 +8604,13 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>479</v>
       </c>
       <c r="D481" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E481" s="2">
         <v>1</v>
@@ -8676,13 +8618,13 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>480</v>
       </c>
       <c r="D482" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E482" s="2">
         <v>1</v>
@@ -8690,35 +8632,20 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>481</v>
       </c>
       <c r="D483" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E483" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="2">
-        <v>482</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D484" s="2">
-        <v>482</v>
-      </c>
-      <c r="E484" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>